--- a/content/dadesref/entitats/Codis_Territori_Subcontinents.xlsx
+++ b/content/dadesref/entitats/Codis_Territori_Subcontinents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\layatsal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\07.Continents_paisos\Propostes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3039AA79-36B8-43A5-9BBF-BEF18AF4ED7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBE3976-EB0F-4768-814A-3BB4F8AAB24C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-1668" windowWidth="23256" windowHeight="13176" xr2:uid="{FBA47912-1BEE-4527-BED9-4738114136E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{FBA47912-1BEE-4527-BED9-4738114136E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Subcontinents" sheetId="1" r:id="rId1"/>
@@ -31,101 +31,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>Nom Taula:</t>
   </si>
   <si>
-    <t>Identificador</t>
-  </si>
-  <si>
-    <t>Nom Català</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>00004</t>
-  </si>
-  <si>
-    <t>00005</t>
-  </si>
-  <si>
-    <t>00006</t>
-  </si>
-  <si>
     <t>Amèrica Central</t>
   </si>
   <si>
-    <t>00007</t>
-  </si>
-  <si>
     <t>Amèrica del Nord</t>
   </si>
   <si>
-    <t>00008</t>
-  </si>
-  <si>
     <t>Amèrica del Sud</t>
   </si>
   <si>
-    <t>00009</t>
-  </si>
-  <si>
-    <t>00010</t>
-  </si>
-  <si>
-    <t>00011</t>
-  </si>
-  <si>
-    <t>00012</t>
-  </si>
-  <si>
-    <t>00013</t>
-  </si>
-  <si>
-    <t>00014</t>
-  </si>
-  <si>
-    <t>00015</t>
-  </si>
-  <si>
     <t>Austràlia i Nova Zelanda</t>
   </si>
   <si>
-    <t>00016</t>
-  </si>
-  <si>
     <t>Carib</t>
   </si>
   <si>
-    <t>00017</t>
-  </si>
-  <si>
-    <t>00018</t>
-  </si>
-  <si>
-    <t>00019</t>
-  </si>
-  <si>
     <t>Melanèsia</t>
   </si>
   <si>
-    <t>00020</t>
-  </si>
-  <si>
     <t>Micronèsia</t>
   </si>
   <si>
-    <t>00021</t>
-  </si>
-  <si>
     <t>Polinèsia</t>
   </si>
   <si>
@@ -141,24 +72,12 @@
     <t>No consta</t>
   </si>
   <si>
-    <t>99998</t>
-  </si>
-  <si>
-    <t>99999</t>
-  </si>
-  <si>
     <t>Continent Codi</t>
   </si>
   <si>
-    <t>Continent Nom</t>
-  </si>
-  <si>
     <t>Àfrica central</t>
   </si>
   <si>
-    <t>Àfrica</t>
-  </si>
-  <si>
     <t>Àfrica meridional</t>
   </si>
   <si>
@@ -171,18 +90,12 @@
     <t>Àfrica septentrional</t>
   </si>
   <si>
-    <t>Amèrica</t>
-  </si>
-  <si>
     <t>Antàrtida i territoris propers</t>
   </si>
   <si>
     <t>Àsia central</t>
   </si>
   <si>
-    <t>Àsia</t>
-  </si>
-  <si>
     <t>Àsia meridional</t>
   </si>
   <si>
@@ -195,23 +108,98 @@
     <t>Àsia sud-oriental</t>
   </si>
   <si>
-    <t>Oceania</t>
-  </si>
-  <si>
     <t>Europa (no UE)</t>
   </si>
   <si>
-    <t>Europa</t>
+    <t>Codi</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -241,50 +229,35 @@
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b val="0"/>
@@ -306,21 +279,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -363,6 +325,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -426,12 +389,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E18B3CC5-922C-4735-BA9B-FAE4FD3A31CF}" name="Table3" displayName="Table3" ref="A3:D26" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5581B209-BB49-45B6-8CE2-59A9A3BF36CC}" name="Identificador" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{0200C8F7-76D1-4245-B83E-45C1154A17E6}" name="Nom Català" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{CE96D04C-86B6-4B4C-8595-4ED148515B1B}" name="Continent Codi" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E2438258-C81F-44F3-AD69-FE6A226325DA}" name="Continent Nom" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E18B3CC5-922C-4735-BA9B-FAE4FD3A31CF}" name="Table3" displayName="Table3" ref="A3:C26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5581B209-BB49-45B6-8CE2-59A9A3BF36CC}" name="Codi" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0200C8F7-76D1-4245-B83E-45C1154A17E6}" name="Nom" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{30E3033D-412A-45B1-A3CA-8BF12C461C08}" name="Continent Codi" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -734,370 +696,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088222C2-FC38-46CB-A337-8485F0310AF5}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="C21" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="C23" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C24" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>34</v>
-      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:D26" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:A26 C4:C26" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>